--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-07_end.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-07_end.xlsx
@@ -52,7 +52,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">첸은 호시구마의 위치를 의료팀에게 전달한 후, 계속 앞으로 나아간다.
+    <t xml:space="preserve">첸은 호시구마의 위치를 의료부에게 전달한 후, 계속 앞으로 나아간다.
 </t>
   </si>
   <si>
